--- a/Input/Brusselator.xlsx
+++ b/Input/Brusselator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Model name</t>
   </si>
@@ -43,28 +43,22 @@
     <t xml:space="preserve">t</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k1-k2*X+k3*X**2*Y-k4*X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k2*X-k3*X**2*Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k4</t>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-((b+1)*u)+(a*(u**2)*v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b*u-(a*(u**2)*v)</t>
   </si>
 </sst>
 </file>
@@ -74,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,6 +88,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +143,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,7 +164,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
@@ -172,8 +172,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,16 +219,6 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
